--- a/EMR-260 My Experience MPage/myExperience groupings2.xlsx
+++ b/EMR-260 My Experience MPage/myExperience groupings2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="11280" windowHeight="11580" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="11280" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>BUILD</t>
   </si>
   <si>
-    <t>PBUILD</t>
-  </si>
-  <si>
     <t>Medical Officer - No Meds v1</t>
   </si>
   <si>
@@ -288,7 +285,13 @@
     <t>Allied: Radiographer</t>
   </si>
   <si>
-    <t xml:space="preserve"> - User Level</t>
+    <t>Admin: Schedulling / Pathenet: Admin</t>
+  </si>
+  <si>
+    <t>User Level</t>
+  </si>
+  <si>
+    <t>PBUILD / PROD</t>
   </si>
 </sst>
 </file>
@@ -707,16 +710,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E165"/>
+  <dimension ref="A1:D167"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
@@ -725,40 +729,38 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>39</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -770,108 +772,100 @@
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="C9" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>40</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C13" s="13"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>40</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="14" t="s">
-        <v>45</v>
-      </c>
+      <c r="C23" s="14"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C26" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C30" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C34" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -881,64 +875,64 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="C58" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -946,66 +940,66 @@
     </row>
     <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C62" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C63" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C64" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1016,70 +1010,70 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C74" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C76" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C77" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C78" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C82" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C86" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C90" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C94" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C98" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C102" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1090,140 +1084,133 @@
     <row r="106" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C107" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C108" s="14" t="s">
-        <v>70</v>
-      </c>
+      <c r="C108" s="14"/>
     </row>
     <row r="109" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C110" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C111" s="14"/>
+    </row>
+    <row r="112" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C111" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C113" s="12" t="s">
+    <row r="114" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C114" s="14"/>
+    </row>
+    <row r="115" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="114" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C114" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="115" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C116" s="12" t="s">
+    <row r="117" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C117" s="14"/>
+    </row>
+    <row r="118" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="117" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C117" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="118" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C119" s="12" t="s">
+    <row r="120" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C120" s="14"/>
+    </row>
+    <row r="121" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C122" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="120" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C120" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="121" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C122" s="12" t="s">
+    <row r="123" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C123" s="14"/>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C126" s="15" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="123" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C123" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C126" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E126" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C129" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C132" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C135" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C138" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C141" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C144" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="147" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C147" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C150" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C153" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="156" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C156" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="159" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C159" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C162" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C162" s="15" t="s">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C165" s="15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C165" s="15" t="s">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C167" s="15" t="s">
         <v>89</v>
+      </c>
+      <c r="D167" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1247,292 +1234,292 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
